--- a/hourly datasets/PlantID_year-5final.xlsx
+++ b/hourly datasets/PlantID_year-5final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,3520 +472,3580 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6052</v>
+        <v>1626</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3909986562082473</v>
+        <v>0.3810397550691091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007710180125224467</v>
+        <v>0.0008202182201271463</v>
       </c>
       <c r="D2" t="n">
-        <v>22.7648935525225</v>
+        <v>-15.45767294042185</v>
       </c>
       <c r="E2" t="n">
-        <v>1.580454832648009e-114</v>
+        <v>6.822407736775947e-54</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01604096358445052</v>
+        <v>-0.0142862656567459</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01906332237985139</v>
+        <v>-0.01107106431625482</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6061</v>
+        <v>1702</v>
       </c>
       <c r="B3" t="n">
-        <v>0.395259850994488</v>
+        <v>0.4181904721008684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007573291067961577</v>
+        <v>0.000825725410082292</v>
       </c>
       <c r="D3" t="n">
-        <v>28.80298350167996</v>
+        <v>29.63703399029462</v>
       </c>
       <c r="E3" t="n">
-        <v>5.999222425563744e-182</v>
+        <v>6.386613428843161e-193</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02032898834349955</v>
+        <v>0.02285365746426394</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02329768719328396</v>
+        <v>0.02609044662625376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6065</v>
+        <v>1710</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3136355709460446</v>
+        <v>0.3615431019716715</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008265008963160349</v>
+        <v>0.000807523217814424</v>
       </c>
       <c r="D4" t="n">
-        <v>-72.36645785460993</v>
+        <v>-39.84444951443142</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.06143086698532226</v>
+        <v>-0.03375803696818332</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0581910175747811</v>
+        <v>-0.03059259919969273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6073</v>
+        <v>1720</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3256263970289623</v>
+        <v>0.3638824783918481</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007583851766149823</v>
+        <v>0.0008154996251105749</v>
       </c>
       <c r="D5" t="n">
-        <v>-63.05518313342689</v>
+        <v>-36.58608875475075</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8.464101741388576e-293</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.04930653549708337</v>
+        <v>-0.03143429404333859</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04633369689718463</v>
+        <v>-0.02823758928418432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6090</v>
+        <v>1723</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3512696044764527</v>
+        <v>0.3423360847148594</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000762630951781596</v>
+        <v>0.0008096482379636934</v>
       </c>
       <c r="D6" t="n">
-        <v>-29.07947638085727</v>
+        <v>-63.46254204168875</v>
       </c>
       <c r="E6" t="n">
-        <v>2.07735199622349e-185</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02367164968132512</v>
+        <v>-0.05296921919442966</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02068216781796212</v>
+        <v>-0.04979545148707056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6094</v>
+        <v>1912</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4230345193281715</v>
+        <v>0.290635345028463</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007658692139561255</v>
+        <v>0.0008144803290472584</v>
       </c>
       <c r="D7" t="n">
-        <v>64.74735529050267</v>
+        <v>-126.5630014020454</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04808691824334014</v>
+        <v>-0.1046794296200441</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05108909396081037</v>
+        <v>-0.1014867204342491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6101</v>
+        <v>2049</v>
       </c>
       <c r="B8" t="n">
-        <v>0.280360964169725</v>
+        <v>0.3721329967544575</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009264442061072522</v>
+        <v>0.0008308695804240925</v>
       </c>
       <c r="D8" t="n">
-        <v>-100.4761521986301</v>
+        <v>-25.9793158995355</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>9.823822501372308e-149</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.094901360586906</v>
+        <v>-0.02321390028642228</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.09126973752583657</v>
+        <v>-0.01995694631588175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6113</v>
+        <v>2076</v>
       </c>
       <c r="B9" t="n">
-        <v>0.398644143596683</v>
+        <v>0.354147620084303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007738459533903556</v>
+        <v>0.0008385830040035458</v>
       </c>
       <c r="D9" t="n">
-        <v>32.56155861536968</v>
+        <v>-47.18769612833606</v>
       </c>
       <c r="E9" t="n">
-        <v>8.84610534547034e-232</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02368090826712831</v>
+        <v>-0.04121439501249404</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02671435247404509</v>
+        <v>-0.03792720493011904</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6124</v>
+        <v>2079</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4174878410907511</v>
+        <v>0.3250607829175717</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009743037535637207</v>
+        <v>0.0008740797389036994</v>
       </c>
       <c r="D10" t="n">
-        <v>45.20287200327865</v>
+        <v>-78.54848257225429</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04213171260849394</v>
+        <v>-0.07037080460936247</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04595094312081568</v>
+        <v>-0.06694446966671315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6155</v>
+        <v>2080</v>
       </c>
       <c r="B11" t="n">
-        <v>0.317824566667622</v>
+        <v>0.2970295856087288</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0007534000814322933</v>
+        <v>0.0008080812137069286</v>
       </c>
       <c r="D11" t="n">
-        <v>-73.82790091120124</v>
+        <v>-119.6523725670319</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05709859517471291</v>
+        <v>-0.09827264698467916</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05414529794223569</v>
+        <v>-0.09510502190908229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6195</v>
+        <v>2094</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3414260236118266</v>
+        <v>0.3406439333043977</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000807860276280271</v>
+        <v>0.0008099800520812295</v>
       </c>
       <c r="D12" t="n">
-        <v>-39.63617293042994</v>
+        <v>-65.52567142220096</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03360387908884414</v>
+        <v>-0.05466202094962244</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03043710013969532</v>
+        <v>-0.05148695255280128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6257</v>
+        <v>2103</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3636090249963582</v>
+        <v>0.3294689016386699</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000884795563488664</v>
+        <v>0.0008067397248312288</v>
       </c>
       <c r="D13" t="n">
-        <v>-11.11837427275274</v>
+        <v>-79.64095040737051</v>
       </c>
       <c r="E13" t="n">
-        <v>1.047177305680563e-28</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01157166927999198</v>
+        <v>-0.06583070168076829</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.008103307179484268</v>
+        <v>-0.06266833515311096</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6639</v>
+        <v>2104</v>
       </c>
       <c r="B14" t="n">
-        <v>0.345763632372742</v>
+        <v>0.3467714092669359</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0008092911064066797</v>
+        <v>0.0008652319227606709</v>
       </c>
       <c r="D14" t="n">
-        <v>-34.20633272033416</v>
+        <v>-54.25945293243591</v>
       </c>
       <c r="E14" t="n">
-        <v>1.778541233754136e-255</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02926907472545701</v>
+        <v>-0.04864283683205545</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02609668698125147</v>
+        <v>-0.04525118474529184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6705</v>
+        <v>2107</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3073900379800127</v>
+        <v>0.3379275390967247</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0009105573254870227</v>
+        <v>0.0008265468756195632</v>
       </c>
       <c r="D15" t="n">
-        <v>-72.54510330884706</v>
+        <v>-67.49875004616662</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06784114881836424</v>
+        <v>-0.0574108855852505</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06427180167380285</v>
+        <v>-0.05417087633251923</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8002</v>
+        <v>2161</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2665862692347959</v>
+        <v>0.3490099533450379</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001052028486121417</v>
+        <v>0.0008216006781143174</v>
       </c>
       <c r="D16" t="n">
-        <v>-101.5754282331927</v>
+        <v>-54.41629723722168</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1089221981197383</v>
+        <v>-0.04631877695289469</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1047982898628624</v>
+        <v>-0.04309815646824849</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8006</v>
+        <v>2167</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3087178204894841</v>
+        <v>0.3423605092843772</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0009266393168034499</v>
+        <v>0.0008102279467718698</v>
       </c>
       <c r="D17" t="n">
-        <v>-69.8531689329796</v>
+        <v>-63.38699001417287</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.06654488668008612</v>
+        <v>-0.05294593083506387</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.06291249879313826</v>
+        <v>-0.04976989070740073</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8066</v>
+        <v>2168</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2854458299038752</v>
+        <v>0.3283014233073858</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0008290823770989582</v>
+        <v>0.0008095023348220491</v>
       </c>
       <c r="D18" t="n">
-        <v>-106.1422673463936</v>
+        <v>-80.81137500684815</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.08962566767656778</v>
+        <v>-0.06700359463655588</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.08637569896787443</v>
+        <v>-0.06383039885989165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8102</v>
+        <v>2364</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3446563639743045</v>
+        <v>0.3546179792107261</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0007949550718162948</v>
+        <v>0.0008125864848663937</v>
       </c>
       <c r="D19" t="n">
-        <v>-36.21607091079082</v>
+        <v>-48.11849762836305</v>
       </c>
       <c r="E19" t="n">
-        <v>5.468383180946593e-286</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.03034824479186355</v>
+        <v>-0.04069308356562327</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02723205371171993</v>
+        <v>-0.0375077981241436</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8226</v>
+        <v>2378</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3489328145069187</v>
+        <v>0.3454681340924095</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0008948538704274397</v>
+        <v>0.0008198945046002501</v>
       </c>
       <c r="D20" t="n">
-        <v>-27.39408022839334</v>
+        <v>-58.84938329562903</v>
       </c>
       <c r="E20" t="n">
-        <v>8.034760315607039e-165</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.02626759384351888</v>
+        <v>-0.04985725216168517</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.02275980359483628</v>
+        <v>-0.04664331976471482</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6041</v>
+        <v>2516</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3734465132260963</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>0.3457852200591769</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0008119600680334007</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-59.03393760795245</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.04952461496083167</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.04634178503203353</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3945</v>
+        <v>2517</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2757856605935113</v>
+        <v>0.3775167815405632</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001479840308936965</v>
+        <v>0.0008227105283713874</v>
       </c>
       <c r="D22" t="n">
-        <v>-35.20367338895652</v>
+        <v>-19.69300009703123</v>
       </c>
       <c r="E22" t="n">
-        <v>1.988703835722497e-270</v>
+        <v>2.598941328915755e-86</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.05499627087841265</v>
+        <v>-0.01781412402728343</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.04919535892884619</v>
+        <v>-0.01458915300280927</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3946</v>
+        <v>2527</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3251772014352924</v>
+        <v>0.3439411169578135</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001114698723400897</v>
+        <v>0.0008196401878010636</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.4260134196599</v>
+        <v>-60.73067650738178</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01526681996503291</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.004889060185625347</v>
+        <v>-0.05138377084373921</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0005194879380713223</v>
+        <v>-0.04817083535185288</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3947</v>
+        <v>2535</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3924423532255313</v>
+        <v>0.2826037144559187</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0009895512278033397</v>
+        <v>0.0008188831467174052</v>
       </c>
       <c r="D24" t="n">
-        <v>65.24258261162117</v>
+        <v>-135.6905512649857</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06262137807177015</v>
+        <v>-0.1127196895700684</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06650037738501097</v>
+        <v>-0.1095097216293133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3948</v>
+        <v>2549</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3730080850515105</v>
+        <v>0.3355123631912282</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00101173503845293</v>
+        <v>0.0008298444623777894</v>
       </c>
       <c r="D25" t="n">
-        <v>44.6031894115024</v>
+        <v>-70.14092339376589</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04314363009404786</v>
+        <v>-0.05983252465207729</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04710958901469155</v>
+        <v>-0.05657958907668546</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3954</v>
+        <v>2554</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3622672948251376</v>
+        <v>0.3532974302470363</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001029639660508527</v>
+        <v>0.0008136949648104097</v>
       </c>
       <c r="D26" t="n">
-        <v>33.39597399639224</v>
+        <v>-49.675850971981</v>
       </c>
       <c r="E26" t="n">
-        <v>1.120905654667443e-243</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03236774718388763</v>
+        <v>-0.04201580511345864</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03640389147210615</v>
+        <v>-0.03882617450368784</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4040</v>
+        <v>2594</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2892980157246777</v>
+        <v>0.2419469024709962</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001123506179359786</v>
+        <v>0.001146143080424426</v>
       </c>
       <c r="D27" t="n">
-        <v>-34.34200939993879</v>
+        <v>-132.4193463947024</v>
       </c>
       <c r="E27" t="n">
-        <v>1.670062356133758e-257</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0407855083252362</v>
+        <v>-0.1540179202358516</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.03638141121968996</v>
+        <v>-0.149525114933375</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4041</v>
+        <v>2828</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3469265572870986</v>
+        <v>0.3658907983455872</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00100230922372888</v>
+        <v>0.0008128404135121025</v>
       </c>
       <c r="D28" t="n">
-        <v>19.0012037593595</v>
+        <v>-34.23503709637831</v>
       </c>
       <c r="E28" t="n">
-        <v>2.051177126773804e-80</v>
+        <v>1.132508022925117e-256</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01708057672884552</v>
+        <v>-0.02942076212253614</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02100958685107027</v>
+        <v>-0.02623448129750849</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4042</v>
+        <v>2830</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1017048034244619</v>
+        <v>0.362791020998869</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001202481520206872</v>
+        <v>0.0008289864218698393</v>
       </c>
       <c r="D29" t="n">
-        <v>-188.0915991405572</v>
+        <v>-37.30748567266217</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2.312120349253139e-304</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.2285335106374804</v>
+        <v>-0.03255218511332899</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2238198335078774</v>
+        <v>-0.02930261300015204</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4050</v>
+        <v>2832</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3424231444290798</v>
+        <v>0.3740319628916726</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001088461283791882</v>
+        <v>0.0008482471758021552</v>
       </c>
       <c r="D30" t="n">
-        <v>13.35984030711699</v>
+        <v>-23.20839694552505</v>
       </c>
       <c r="E30" t="n">
-        <v>1.09221365893217e-40</v>
+        <v>4.112763351738822e-119</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01240830763962355</v>
+        <v>-0.02134899366323841</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01667503022425463</v>
+        <v>-0.01802392066463556</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4054</v>
+        <v>2835</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3274019872498866</v>
+        <v>0.4012428668091277</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001060788195281184</v>
+        <v>0.001031430172150512</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4520112963050418</v>
+        <v>7.29515866093953</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6512614663875692</v>
+        <v>2.985888801422466e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.002558610866364982</v>
+        <v>0.005502877620606673</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001599634371856714</v>
+        <v>0.009546015886429636</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4057</v>
+        <v>2836</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3088374236171003</v>
+        <v>0.2954389877266462</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001147076849495447</v>
+        <v>0.0008171938738247995</v>
       </c>
       <c r="D32" t="n">
-        <v>-16.60224586383833</v>
+        <v>-120.264524095091</v>
       </c>
       <c r="E32" t="n">
-        <v>7.578136876625698e-62</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.02129229845202673</v>
+        <v>-0.09988110538016386</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.01679580530805425</v>
+        <v>-0.09667775927776283</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4072</v>
+        <v>2837</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3082589476994178</v>
+        <v>0.3759916206860728</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001016055147899846</v>
+        <v>0.0008074179151535315</v>
       </c>
       <c r="D33" t="n">
-        <v>-19.31246334244956</v>
+        <v>-21.95492450296441</v>
       </c>
       <c r="E33" t="n">
-        <v>5.265339656179222e-83</v>
+        <v>8.375339912707627e-107</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.02161397458197249</v>
+        <v>-0.01930931186403831</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0176310810134734</v>
+        <v>-0.01614428687503511</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4078</v>
+        <v>2840</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3112690292796036</v>
+        <v>0.4087729692918695</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0009945015726027817</v>
+        <v>0.0008206956258121965</v>
       </c>
       <c r="D34" t="n">
-        <v>-16.70429356291461</v>
+        <v>18.34364502840057</v>
       </c>
       <c r="E34" t="n">
-        <v>1.380920027739971e-62</v>
+        <v>3.848814439414747e-75</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.01856164844616076</v>
+        <v>0.01344601286661101</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01466324398891345</v>
+        <v>0.01666308560590897</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4140</v>
+        <v>2843</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3853792263545056</v>
+        <v>0.3228279021592343</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001330493200775232</v>
+        <v>0.001116920390147009</v>
       </c>
       <c r="D35" t="n">
-        <v>43.21536616937458</v>
+        <v>-63.46962462297303</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05489001208292298</v>
+        <v>-0.07307964503809239</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06010548963180674</v>
+        <v>-0.06870139075465814</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4271</v>
+        <v>2850</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3044285844748201</v>
+        <v>0.343849774855599</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001058067156532858</v>
+        <v>0.0008068679460240843</v>
       </c>
       <c r="D36" t="n">
-        <v>-22.16578680995311</v>
+        <v>-61.80521291711099</v>
       </c>
       <c r="E36" t="n">
-        <v>1.078211787593903e-108</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.02552668046254214</v>
+        <v>-0.05145007977314998</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0213791015820991</v>
+        <v>-0.04828721062687111</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6004</v>
+        <v>2857</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3226208697842482</v>
+        <v>0.2948606651306549</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0009927670892137951</v>
+        <v>0.001056970602839123</v>
       </c>
       <c r="D37" t="n">
-        <v>-5.298932418336509</v>
+        <v>-93.52933247094411</v>
       </c>
       <c r="E37" t="n">
-        <v>1.166376690725204e-07</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.007206408390444134</v>
+        <v>-0.1009293824599911</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.00331480303534097</v>
+        <v>-0.09678612738991813</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6017</v>
+        <v>2861</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1861072776698617</v>
+        <v>0.3491835680968157</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001180351371536322</v>
+        <v>0.0008285037933488146</v>
       </c>
       <c r="D38" t="n">
-        <v>-120.1118592701329</v>
+        <v>-53.75334707736679</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1440876617647328</v>
+        <v>-0.04615869207939251</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1394607338898253</v>
+        <v>-0.04291101183819509</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6018</v>
+        <v>2864</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3400900104738236</v>
+        <v>0.08681223738368771</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001066436214720867</v>
+        <v>0.0008404896580563561</v>
       </c>
       <c r="D39" t="n">
-        <v>11.4479748607172</v>
+        <v>-365.1516466980053</v>
       </c>
       <c r="E39" t="n">
-        <v>2.474474279889566e-30</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01011834235790344</v>
+        <v>-0.3085535146921937</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01429872759546235</v>
+        <v>-0.30525885065165</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6025</v>
+        <v>2866</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3111725886366568</v>
+        <v>0.345191915829751</v>
       </c>
       <c r="C40" t="n">
-        <v>0.001158889637554714</v>
+        <v>0.0008113253657057908</v>
       </c>
       <c r="D40" t="n">
-        <v>-14.41801386345999</v>
+        <v>-59.81139783993351</v>
       </c>
       <c r="E40" t="n">
-        <v>4.271789266208461e-47</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.01898028624936435</v>
+        <v>-0.05011667519462062</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.01443748747160364</v>
+        <v>-0.0469363332570966</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3944</v>
+        <v>2872</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3278814754971408</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+        <v>0.3745890769792058</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0008110914394281377</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-23.58469359495514</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6.113907514484638e-123</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.02071905555737371</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.01753963059543378</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2872</v>
+        <v>2876</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3668900825486927</v>
+        <v>0.3681608118486455</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0005396442244256504</v>
+        <v>0.0008241372389775001</v>
       </c>
       <c r="D42" t="n">
-        <v>54.02727172756698</v>
+        <v>-31.01134980706996</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>5.102518482849334e-211</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02809781393107795</v>
+        <v>-0.02717289002495289</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03021319636743556</v>
+        <v>-0.02394232638897524</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3634861269450023</v>
+        <v>0.3699061861174711</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0006296858284033916</v>
+        <v>0.0008065354108451762</v>
       </c>
       <c r="D43" t="n">
-        <v>40.89586962892439</v>
+        <v>-29.52410225012361</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.803399316101559e-191</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0245173786960168</v>
+        <v>-0.02539301675329033</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02698572039511591</v>
+        <v>-0.02223145112298654</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2878</v>
+        <v>3113</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3650322243976564</v>
+        <v>0.3573611148950254</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0005451989939694684</v>
+        <v>0.0008490739777343487</v>
       </c>
       <c r="D44" t="n">
-        <v>50.06914411098336</v>
+        <v>-42.81994986773615</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02622906854971549</v>
+        <v>-0.03802146216441439</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02836622544672543</v>
+        <v>-0.03469314815675387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3113</v>
+        <v>3118</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3471098982002968</v>
+        <v>0.3449075985111629</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0005781450794652964</v>
+        <v>0.0008177188995657624</v>
       </c>
       <c r="D45" t="n">
-        <v>16.21620789289042</v>
+        <v>-59.69144356375636</v>
       </c>
       <c r="E45" t="n">
-        <v>4.317296506317477e-59</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.008242168724537726</v>
+        <v>-0.05041352362879024</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01050847287718407</v>
+        <v>-0.04720811946010307</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3118</v>
+        <v>3131</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3415630984317967</v>
+        <v>0.3519187847423513</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0005904200699304415</v>
+        <v>0.000808021928758201</v>
       </c>
       <c r="D46" t="n">
-        <v>6.484401915422447</v>
+        <v>-51.73081797111308</v>
       </c>
       <c r="E46" t="n">
-        <v>8.934158357813642e-11</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.002671310235438838</v>
+        <v>-0.04338333165451165</v>
       </c>
       <c r="G46" t="n">
-        <v>0.004985731829282782</v>
+        <v>-0.04021593897200475</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3131</v>
+        <v>3140</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3487785618433517</v>
+        <v>0.3364651314570483</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0005646870093283724</v>
+        <v>0.0008088317727580229</v>
       </c>
       <c r="D47" t="n">
-        <v>19.557709423936</v>
+        <v>-70.78516265914497</v>
       </c>
       <c r="E47" t="n">
-        <v>4.457683369741042e-85</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.009937209899220208</v>
+        <v>-0.05883857220735516</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01215075898861128</v>
+        <v>-0.05566800498976732</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3140</v>
+        <v>3148</v>
       </c>
       <c r="B48" t="n">
-        <v>0.331211371682098</v>
+        <v>0.3377408188567819</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0005497404005492187</v>
+        <v>0.0009006251585206961</v>
       </c>
       <c r="D48" t="n">
-        <v>-11.86597475976102</v>
+        <v>-62.1541611060172</v>
       </c>
       <c r="E48" t="n">
-        <v>1.834711490569984e-32</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.007600685226282673</v>
+        <v>-0.05774279681744413</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.005445726208393213</v>
+        <v>-0.05421240558021112</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3201647543328349</v>
+        <v>0.08681223738368626</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0006682678046250583</v>
+        <v>0.0008425525679605507</v>
       </c>
       <c r="D49" t="n">
-        <v>-26.29158990602398</v>
+        <v>-364.2576075873915</v>
       </c>
       <c r="E49" t="n">
-        <v>5.036272079604359e-152</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.0188796137700887</v>
+        <v>-0.3085575579275967</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.01626003236311327</v>
+        <v>-0.3052548074162498</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3152</v>
+        <v>3178</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06627848993440055</v>
+        <v>0.3245599408026477</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0006710004981848816</v>
+        <v>0.0008323891759690292</v>
       </c>
       <c r="D50" t="n">
-        <v>-404.554226411678</v>
+        <v>-83.08430869785238</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.2727712341898597</v>
+        <v>-0.07078993459540164</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.2701409407402111</v>
+        <v>-0.06752702391052193</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3178721054654859</v>
+        <v>0.3459326517139242</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0005797504386285757</v>
+        <v>0.000808170457619645</v>
       </c>
       <c r="D51" t="n">
-        <v>-34.2603827621683</v>
+        <v>-59.12832854894463</v>
       </c>
       <c r="E51" t="n">
-        <v>2.593077924130503e-256</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.02099877048013637</v>
+        <v>-0.04936975579461043</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.01872617338776356</v>
+        <v>-0.04620178088876016</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3179</v>
+        <v>3181</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3415085801106323</v>
+        <v>0.3172246623237498</v>
       </c>
       <c r="C52" t="n">
-        <v>0.000546236729721145</v>
+        <v>0.0008702013948754325</v>
       </c>
       <c r="D52" t="n">
-        <v>6.909097293993888</v>
+        <v>-87.90351082212374</v>
       </c>
       <c r="E52" t="n">
-        <v>4.895528731855138e-12</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002703390322659018</v>
+        <v>-0.07819932377675143</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00484461509973385</v>
+        <v>-0.07478819168696807</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3181</v>
+        <v>3393</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3102132133546908</v>
+        <v>0.4110150992386842</v>
       </c>
       <c r="C53" t="n">
-        <v>0.000585373791505757</v>
+        <v>0.0008163417780982302</v>
       </c>
       <c r="D53" t="n">
-        <v>-47.01502602969614</v>
+        <v>21.18803624551644</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1.313930617564212e-99</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.02866868424313438</v>
+        <v>0.01569667621140606</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0263740438463558</v>
+        <v>0.01889668215474322</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3393</v>
+        <v>3399</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4036347186362844</v>
+        <v>0.2927296105943735</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0005483521074999017</v>
+        <v>0.0008498503723174922</v>
       </c>
       <c r="D54" t="n">
-        <v>120.1785136512132</v>
+        <v>-118.8312822477744</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.06482538275279394</v>
+        <v>-0.1026544881728529</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06697489972090297</v>
+        <v>-0.09932313074961927</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3399</v>
+        <v>3403</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2871046819022323</v>
+        <v>0.3809772169038945</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0006603511837711353</v>
+        <v>0.0008098943178649865</v>
       </c>
       <c r="D55" t="n">
-        <v>-76.67116640583006</v>
+        <v>-15.73193300738663</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>9.320785083822204e-56</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.05192416979196154</v>
+        <v>-0.01432856931388831</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04933562120244564</v>
+        <v>-0.01115383698954181</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3403</v>
+        <v>3406</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3781792764770424</v>
+        <v>0.3411258272559761</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0005491738318876648</v>
+        <v>0.0008234468484387894</v>
       </c>
       <c r="D56" t="n">
-        <v>73.64644258191737</v>
+        <v>-63.86883731396401</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03936833003120481</v>
+        <v>-0.05420652147492738</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04152106812400809</v>
+        <v>-0.05097866412433946</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3406</v>
+        <v>3648</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3356529132276217</v>
+        <v>0.1576839149913794</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0005594954598624951</v>
+        <v>0.0009821231422547157</v>
       </c>
       <c r="D57" t="n">
-        <v>-3.720609586940732</v>
+        <v>-240.3308657632813</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0001988101638098204</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.003178263389821793</v>
+        <v>-0.237959434044115</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0009850649538066321</v>
+        <v>-0.2341095760843452</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3648</v>
+        <v>3942</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1718884201838828</v>
+        <v>0.2893317096877007</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0009735413945248234</v>
+        <v>0.0008414843079008885</v>
       </c>
       <c r="D58" t="n">
-        <v>-170.3534725367288</v>
+        <v>-124.0506916026814</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1677542776714301</v>
+        <v>-0.1060359918690841</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1639380367596761</v>
+        <v>-0.1027374288667336</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2967754162141021</v>
+        <v>0.3583801305831756</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0006321559963269496</v>
+        <v>0.0008248505579604577</v>
       </c>
       <c r="D59" t="n">
-        <v>-64.79280655933199</v>
+        <v>-42.84205075863931</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.04219817351154878</v>
+        <v>-0.03695496937211239</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.03972014885911887</v>
+        <v>-0.03372160957275538</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3584303149400498</v>
+        <v>0.3288875644041989</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0005713991965916187</v>
+        <v>0.0008120510447886446</v>
       </c>
       <c r="D60" t="n">
-        <v>36.21940258940416</v>
+        <v>-79.83593650604125</v>
       </c>
       <c r="E60" t="n">
-        <v>4.349044642657893e-286</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01957580725144497</v>
+        <v>-0.06642244892725069</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0218156678297829</v>
+        <v>-0.0632392623755707</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2866</v>
+        <v>3945</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3377345773994359</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+        <v>0.2804302236393041</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.001144083110289782</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-99.0209499619402</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.1155305615939935</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.1110458312386173</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2516</v>
+        <v>3946</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3825227531560987</v>
+        <v>0.3234986159888269</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0009277204583746737</v>
+        <v>0.0008876801188702349</v>
       </c>
       <c r="D62" t="n">
-        <v>1.802982473962021</v>
+        <v>-79.10485159468544</v>
       </c>
       <c r="E62" t="n">
-        <v>0.07139299272944948</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.0001456497733155736</v>
+        <v>-0.07195962783446026</v>
       </c>
       <c r="G62" t="n">
-        <v>0.003490977227686672</v>
+        <v>-0.06847998029910506</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2517</v>
+        <v>3947</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4233132003160604</v>
+        <v>0.3927636005122794</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0009461893591797858</v>
+        <v>0.0008154973977076687</v>
       </c>
       <c r="D63" t="n">
-        <v>44.8780262377468</v>
+        <v>-1.170843151693778</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>0.2416621874825493</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0406085987113122</v>
+        <v>-0.002553167557270993</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04431762306298231</v>
+        <v>0.00064352847061075</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2527</v>
+        <v>3948</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3762409008406848</v>
+        <v>0.3754756598499734</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0009532603709233481</v>
+        <v>0.0008087800098633585</v>
       </c>
       <c r="D64" t="n">
-        <v>-4.835183260333988</v>
+        <v>-22.55589898756057</v>
       </c>
       <c r="E64" t="n">
-        <v>1.331557349993796e-06</v>
+        <v>1.277503697984224e-112</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.006477559805328959</v>
+        <v>-0.01982794236086307</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.002740817371127724</v>
+        <v>-0.01665757805040925</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2535</v>
+        <v>3954</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3031312209982493</v>
+        <v>0.363838989591436</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0009974545325630215</v>
+        <v>0.0008176871957580964</v>
       </c>
       <c r="D65" t="n">
-        <v>-77.91720413657389</v>
+        <v>-36.541394581178</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>4.331231815102108e-292</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.07967385931862256</v>
+        <v>-0.03148207041009932</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.07576387754270511</v>
+        <v>-0.02827679051824775</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2549</v>
+        <v>4040</v>
       </c>
       <c r="B66" t="n">
-        <v>0.386251198435371</v>
+        <v>0.2894809509783506</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0009638131427027984</v>
+        <v>0.0008596974408333802</v>
       </c>
       <c r="D66" t="n">
-        <v>5.603896406010451</v>
+        <v>-121.2490163704714</v>
       </c>
       <c r="E66" t="n">
-        <v>2.099559722987895e-08</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003512054568219802</v>
+        <v>-0.1059224477185257</v>
       </c>
       <c r="G66" t="n">
-        <v>0.007290163444695897</v>
+        <v>-0.1025524904359921</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2554</v>
+        <v>4041</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388013005048869</v>
+        <v>0.3514082358335783</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0009078340342237017</v>
+        <v>0.000807555143990227</v>
       </c>
       <c r="D67" t="n">
-        <v>7.890115758967987</v>
+        <v>-52.3929350669126</v>
       </c>
       <c r="E67" t="n">
-        <v>3.03944448106725e-15</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005383579112129667</v>
+        <v>-0.04389296568052854</v>
       </c>
       <c r="G67" t="n">
-        <v>0.008942252127782158</v>
+        <v>-0.0407274027635339</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2594</v>
+        <v>4042</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2994126924588624</v>
+        <v>0.08681223738367466</v>
       </c>
       <c r="C68" t="n">
-        <v>0.00135801599265956</v>
+        <v>0.0008373091521947808</v>
       </c>
       <c r="D68" t="n">
-        <v>-59.96792188769618</v>
+        <v>-366.5386695791666</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.08409908109166145</v>
+        <v>-0.3085472810055739</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.07877571284843995</v>
+        <v>-0.3052650843382958</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2828</v>
+        <v>4050</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3947801276714906</v>
+        <v>0.3465528528861778</v>
       </c>
       <c r="C69" t="n">
-        <v>0.000943964048588587</v>
+        <v>0.0008192856876989624</v>
       </c>
       <c r="D69" t="n">
-        <v>14.75695844921812</v>
+        <v>-57.56913354839684</v>
       </c>
       <c r="E69" t="n">
-        <v>3.007678982506835e-49</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01207988763089062</v>
+        <v>-0.04877134010686203</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01578018885426436</v>
+        <v>-0.0455597942320014</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2830</v>
+        <v>4054</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4074689088346142</v>
+        <v>0.3246795609650445</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0009552428512112309</v>
+        <v>0.0008216763965192814</v>
       </c>
       <c r="D70" t="n">
-        <v>27.86602314997585</v>
+        <v>-84.02195728515728</v>
       </c>
       <c r="E70" t="n">
-        <v>1.898650727774879e-170</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0247465625669788</v>
+        <v>-0.07064931773846554</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0284910762444234</v>
+        <v>-0.0674284004426645</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2832</v>
+        <v>4057</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4226822096679286</v>
+        <v>0.3066635513588406</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0009834750832320455</v>
+        <v>0.0008558518833146141</v>
       </c>
       <c r="D71" t="n">
-        <v>42.53500770099881</v>
+        <v>-101.7172134500839</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.03990452879150096</v>
+        <v>-0.08873231017208046</v>
       </c>
       <c r="G71" t="n">
-        <v>0.04375971168653005</v>
+        <v>-0.0853774272214574</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2835</v>
+        <v>4072</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4464863921660037</v>
+        <v>0.313451968978554</v>
       </c>
       <c r="C72" t="n">
-        <v>0.001193880517710427</v>
+        <v>0.0008071968273449249</v>
       </c>
       <c r="D72" t="n">
-        <v>54.97727935368692</v>
+        <v>-99.43851159706887</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0632963208559737</v>
+        <v>-0.08184853024674114</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06797628461820737</v>
+        <v>-0.07868437190736989</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2836</v>
+        <v>4078</v>
       </c>
       <c r="B73" t="n">
-        <v>0.331962798550487</v>
+        <v>0.3128920878029869</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0009464889806951575</v>
+        <v>0.0008081108528588985</v>
       </c>
       <c r="D73" t="n">
-        <v>-51.65119919570582</v>
+        <v>-100.0188674198333</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.05074239030642484</v>
+        <v>-0.08241020288218173</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.04703219145042743</v>
+        <v>-0.07924246162306345</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2837</v>
+        <v>4140</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3998863369299904</v>
+        <v>0.3837880250561015</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0009639252402738557</v>
+        <v>0.0008782319322838234</v>
       </c>
       <c r="D74" t="n">
-        <v>19.74867625176923</v>
+        <v>-11.30725795142089</v>
       </c>
       <c r="E74" t="n">
-        <v>1.064620370535715e-86</v>
+        <v>1.214517361757005e-29</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01714697335384713</v>
+        <v>-0.01165170063296692</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02092552164830735</v>
+        <v>-0.008209089366049069</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2840</v>
+        <v>4271</v>
       </c>
       <c r="B75" t="n">
-        <v>0.452687120259107</v>
+        <v>0.3089102594432478</v>
       </c>
       <c r="C75" t="n">
-        <v>0.000948727348237456</v>
+        <v>0.000822264908697914</v>
       </c>
       <c r="D75" t="n">
-        <v>75.71936338048285</v>
+        <v>-103.139705604923</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.06997754424668454</v>
+        <v>-0.08641977272473016</v>
       </c>
       <c r="G75" t="n">
-        <v>0.07369651741370312</v>
+        <v>-0.08319654849999338</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2843</v>
+        <v>6004</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3446594388536159</v>
+        <v>0.3229175800701932</v>
       </c>
       <c r="C76" t="n">
-        <v>0.002170507153303271</v>
+        <v>0.0008108873206433171</v>
       </c>
       <c r="D76" t="n">
-        <v>-16.67382230011039</v>
+        <v>-87.31279696079909</v>
       </c>
       <c r="E76" t="n">
-        <v>2.315778499808299e-62</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.04044480108384583</v>
+        <v>-0.0723901524002975</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.03193650006674855</v>
+        <v>-0.06921152757053517</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2850</v>
+        <v>6017</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3577945626524542</v>
+        <v>0.1810797474028694</v>
       </c>
       <c r="C77" t="n">
-        <v>0.001011091410782168</v>
+        <v>0.0008190943873565385</v>
       </c>
       <c r="D77" t="n">
-        <v>-22.80261362187165</v>
+        <v>-259.6021605507376</v>
       </c>
       <c r="E77" t="n">
-        <v>6.812513765126965e-115</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.0250372456723501</v>
+        <v>-0.2142440706478061</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02107380788056768</v>
+        <v>-0.2110332746576741</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2857</v>
+        <v>6018</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3382490811871861</v>
+        <v>0.3398548819955912</v>
       </c>
       <c r="C78" t="n">
-        <v>0.001678333734494547</v>
+        <v>0.0008226371049678448</v>
       </c>
       <c r="D78" t="n">
-        <v>-25.3829184066046</v>
+        <v>-65.47666976694882</v>
       </c>
       <c r="E78" t="n">
-        <v>7.831121986348128e-142</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.04589050871595874</v>
+        <v>-0.05547587966480516</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.03931150776749542</v>
+        <v>-0.0522511964552316</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2861</v>
+        <v>6025</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3745422852135497</v>
+        <v>0.3043316624913968</v>
       </c>
       <c r="C79" t="n">
-        <v>0.001016606507548327</v>
+        <v>0.0008610750886726525</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.204764742826089</v>
+        <v>-103.8083190886436</v>
       </c>
       <c r="E79" t="n">
-        <v>5.492260270566055e-10</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.008300332590355742</v>
+        <v>-0.09107443634982587</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.004315275840371101</v>
+        <v>-0.08769907877859973</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2864</v>
+        <v>6041</v>
       </c>
       <c r="B80" t="n">
-        <v>0.141882378185589</v>
+        <v>0.3676467027719788</v>
       </c>
       <c r="C80" t="n">
-        <v>0.001060944344222475</v>
+        <v>0.0008332237534459102</v>
       </c>
       <c r="D80" t="n">
-        <v>-225.2405722738023</v>
+        <v>-31.29017526901706</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>8.639460992834313e-215</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.2410471408893619</v>
+        <v>-0.02770480837041073</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2368882815972864</v>
+        <v>-0.02443862619685085</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2378</v>
+        <v>6052</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3808500894289131</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+        <v>0.3850870357813211</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0008140986232556573</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-10.60238161289438</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.916888352908035e-26</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.01022699073641856</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-0.007035777812158258</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1619</v>
+        <v>6061</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3929734158008568</v>
+        <v>0.3886975180131039</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0009451173129038614</v>
+        <v>0.0008111352018765457</v>
       </c>
       <c r="D82" t="n">
-        <v>63.6768200569302</v>
+        <v>-6.189969355157831</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>6.02057532257219e-10</v>
       </c>
       <c r="F82" t="n">
-        <v>0.05832965557163085</v>
+        <v>-0.006610700296431647</v>
       </c>
       <c r="G82" t="n">
-        <v>0.06203447456130631</v>
+        <v>-0.00343110378857951</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1626</v>
+        <v>6065</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3757563660243373</v>
+        <v>0.3092819989749033</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0009589265795516328</v>
+        <v>0.0008280300891825291</v>
       </c>
       <c r="D83" t="n">
-        <v>44.80532316669986</v>
+        <v>-101.9726483177271</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04108553993111132</v>
+        <v>-0.08605933275675627</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04484449064878673</v>
+        <v>-0.08281350940465625</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1702</v>
+        <v>6073</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4080232153271933</v>
+        <v>0.3229282048328331</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0009691951808174512</v>
+        <v>0.0008232646316995327</v>
       </c>
       <c r="D84" t="n">
-        <v>77.62302793267301</v>
+        <v>-85.98719354266247</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07333226299754805</v>
+        <v>-0.07240378675926884</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07713146618806213</v>
+        <v>-0.06917664368628407</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1710</v>
+        <v>6090</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3599117215269216</v>
+        <v>0.3448695386899601</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0009308881681410194</v>
+        <v>0.0008095142525253019</v>
       </c>
       <c r="D85" t="n">
-        <v>29.13386561426886</v>
+        <v>-60.34344820151598</v>
       </c>
       <c r="E85" t="n">
-        <v>3.983855810096542e-186</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.02529585011372116</v>
+        <v>-0.05043550261228706</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02894489147134559</v>
+        <v>-0.0472622601190119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1720</v>
+        <v>6094</v>
       </c>
       <c r="B86" t="n">
-        <v>0.362624508895972</v>
+        <v>0.418517359260994</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0009506081008590999</v>
+        <v>0.0008147997555128263</v>
       </c>
       <c r="D86" t="n">
-        <v>31.38323577783777</v>
+        <v>30.43562425933263</v>
       </c>
       <c r="E86" t="n">
-        <v>1.487610903845585e-215</v>
+        <v>2.446368722093102e-203</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0279699868410937</v>
+        <v>0.02320195854714541</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03169632948207373</v>
+        <v>0.02639591986362353</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1723</v>
+        <v>6101</v>
       </c>
       <c r="B87" t="n">
-        <v>0.341464537272086</v>
+        <v>0.281065272710014</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0009243274344514612</v>
+        <v>0.0008968045896708632</v>
       </c>
       <c r="D87" t="n">
-        <v>9.383240412900701</v>
+        <v>-125.6161583505504</v>
       </c>
       <c r="E87" t="n">
-        <v>6.474913093966414e-21</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.006861524755039201</v>
+        <v>-0.1144108547752241</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01048484832035635</v>
+        <v>-0.1108954399159671</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1912</v>
+        <v>6113</v>
       </c>
       <c r="B88" t="n">
-        <v>0.2822443592195542</v>
+        <v>0.3924930392675975</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0009461937726850829</v>
+        <v>0.0008066892749440321</v>
       </c>
       <c r="D88" t="n">
-        <v>-53.42139525120022</v>
+        <v>-1.519024519195482</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>0.1287567304099351</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.05240151084756426</v>
+        <v>-0.002806465171725024</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.04869247218210395</v>
+        <v>0.0003557035957010026</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2049</v>
+        <v>6124</v>
       </c>
       <c r="B89" t="n">
-        <v>0.365318964833015</v>
+        <v>0.4428560793814142</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0009526216289871314</v>
+        <v>0.0009264484124743058</v>
       </c>
       <c r="D89" t="n">
-        <v>34.14536591323406</v>
+        <v>53.03874307968274</v>
       </c>
       <c r="E89" t="n">
-        <v>1.223358338827837e-254</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03066049630654891</v>
+        <v>0.04732185098078796</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03439473189070449</v>
+        <v>0.05095346767082134</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2076</v>
+        <v>6155</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3533209681529266</v>
+        <v>0.3117787201390932</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0009339778307045044</v>
+        <v>0.000810272828393718</v>
       </c>
       <c r="D90" t="n">
-        <v>21.98084016946395</v>
+        <v>-101.1260615500994</v>
       </c>
       <c r="E90" t="n">
-        <v>6.263237499519163e-107</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.01869904106791663</v>
+        <v>-0.08352780794684697</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02236019376916011</v>
+        <v>-0.08035159188618554</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2079</v>
+        <v>6195</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3209608029056687</v>
+        <v>0.3337600167267394</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0009784163581010019</v>
+        <v>0.000894583267210834</v>
       </c>
       <c r="D91" t="n">
-        <v>-12.09152701788567</v>
+        <v>-67.02383727320404</v>
       </c>
       <c r="E91" t="n">
-        <v>1.209989036598924e-33</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.01374822273204155</v>
+        <v>-0.06171175703971022</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.009912872925397571</v>
+        <v>-0.05820504961803006</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2080</v>
+        <v>6257</v>
       </c>
       <c r="B92" t="n">
-        <v>0.2959274777285168</v>
+        <v>0.374308629955089</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0009340252404757138</v>
+        <v>0.0008470952506279734</v>
       </c>
       <c r="D92" t="n">
-        <v>-39.46774820249623</v>
+        <v>-22.91335016473247</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>3.737696755750366e-116</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.03869454227861952</v>
+        <v>-0.02107006886445761</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0350332037331234</v>
+        <v>-0.01774951133658352</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2094</v>
+        <v>6639</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3344706543570078</v>
+        <v>0.342460049065213</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0009279238972504911</v>
+        <v>0.000833929940032515</v>
       </c>
       <c r="D93" t="n">
-        <v>1.809742833001167</v>
+        <v>-61.46603992704464</v>
       </c>
       <c r="E93" t="n">
-        <v>0.07033749717277776</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.0001394071493504654</v>
+        <v>-0.05289284617960442</v>
       </c>
       <c r="G93" t="n">
-        <v>0.003498014394589641</v>
+        <v>-0.0496238958011886</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2103</v>
+        <v>6705</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3290892449642059</v>
+        <v>0.3074714772881811</v>
       </c>
       <c r="C94" t="n">
-        <v>0.000920596364772535</v>
+        <v>0.0008887518991248</v>
       </c>
       <c r="D94" t="n">
-        <v>-4.021421235024158</v>
+        <v>-97.04276621221312</v>
       </c>
       <c r="E94" t="n">
-        <v>5.787377775297438e-05</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.00550645473695573</v>
+        <v>-0.08798886718907016</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.001897756803408905</v>
+        <v>-0.08450501834578662</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2104</v>
+        <v>8002</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3318662888947976</v>
+        <v>0.2707509632744979</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0009820175923024013</v>
+        <v>0.001129909528526511</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.9420012908544327</v>
+        <v>-108.8294714546488</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3461933593928237</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.002849795084069556</v>
+        <v>-0.1251820422058227</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0009996714048883086</v>
+        <v>-0.1207528713564005</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2107</v>
+        <v>8006</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3345482503255622</v>
+        <v>0.3184624649365752</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0009539832621569385</v>
+        <v>0.0009994950240287774</v>
       </c>
       <c r="D96" t="n">
-        <v>1.841646138740065</v>
+        <v>-75.29397676808003</v>
       </c>
       <c r="E96" t="n">
-        <v>0.06552872271148762</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.0001128869724708972</v>
+        <v>-0.07721493241447491</v>
       </c>
       <c r="G96" t="n">
-        <v>0.003626686154818851</v>
+        <v>-0.07329697782359379</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2161</v>
+        <v>8066</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3353551331790254</v>
+        <v>0.2820121634666889</v>
       </c>
       <c r="C97" t="n">
-        <v>0.001003516824234781</v>
+        <v>0.0008424929210827424</v>
       </c>
       <c r="D97" t="n">
-        <v>2.554797670275388</v>
+        <v>-132.5901426511212</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0106258439498764</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0005969111704983098</v>
+        <v>-0.11335751493868</v>
       </c>
       <c r="G97" t="n">
-        <v>0.004530653718776039</v>
+        <v>-0.1100549982391612</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2167</v>
+        <v>8102</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3380667314224707</v>
+        <v>0.3392553367215786</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0009678754787679167</v>
+        <v>0.000828933638384137</v>
       </c>
       <c r="D98" t="n">
-        <v>5.450474574268437</v>
+        <v>-65.70258560166198</v>
       </c>
       <c r="E98" t="n">
-        <v>5.030732761552234e-08</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003378365680303504</v>
+        <v>-0.05608776593672756</v>
       </c>
       <c r="G98" t="n">
-        <v>0.007172395695861337</v>
+        <v>-0.0528384007313342</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2168</v>
+        <v>8226</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3266150076131433</v>
+        <v>0.3500720952049809</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0009166534591959279</v>
+        <v>0.0009036032692532532</v>
       </c>
       <c r="D99" t="n">
-        <v>-6.737925940586871</v>
+        <v>-48.30253091790869</v>
       </c>
       <c r="E99" t="n">
-        <v>1.611882727512101e-11</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.007972964078354745</v>
+        <v>-0.04541735746809768</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.004379722164135118</v>
+        <v>-0.04187529223315958</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2364</v>
+        <v>4143</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3479250445655426</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.0009816334326825419</v>
-      </c>
-      <c r="D100" t="n">
-        <v>15.41684841539884</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1.374776337981432e-53</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.01320971353122279</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.01705767413108595</v>
-      </c>
+        <v>0.3937184200556095</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1606</v>
+        <v>26</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3327913507343883</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+        <v>0.3448779201914144</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.0008068840263948969</v>
+      </c>
+      <c r="D101" t="n">
+        <v>107.4430618287597</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.08511262221091584</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.08827555846225515</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1073</v>
+        <v>47</v>
       </c>
       <c r="B102" t="n">
-        <v>0.07495592627678788</v>
+        <v>0.3608567783404914</v>
       </c>
       <c r="C102" t="n">
-        <v>0.001032689540154631</v>
+        <v>0.0008092719102832002</v>
       </c>
       <c r="D102" t="n">
-        <v>-248.082025782688</v>
+        <v>126.8707676382004</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.2582157636690708</v>
+        <v>0.1010868001802723</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2541676625832363</v>
+        <v>0.1042590967910526</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1081</v>
+        <v>56</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3334177785748682</v>
+        <v>0.3232341755896025</v>
       </c>
       <c r="C103" t="n">
-        <v>0.001019634913210057</v>
+        <v>0.0008172803241680947</v>
       </c>
       <c r="D103" t="n">
-        <v>2.226423538970274</v>
+        <v>79.59367650382133</v>
       </c>
       <c r="E103" t="n">
-        <v>0.02598729584109527</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0002716754329107215</v>
+        <v>0.0634485011819899</v>
       </c>
       <c r="G103" t="n">
-        <v>0.004268602910942844</v>
+        <v>0.06665219028755721</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1091</v>
+        <v>641</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3814213840307915</v>
+        <v>0.2968996390780011</v>
       </c>
       <c r="C104" t="n">
-        <v>0.00102990079351614</v>
+        <v>0.0008049808755985733</v>
       </c>
       <c r="D104" t="n">
-        <v>48.81416243618246</v>
+        <v>48.09531554943285</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.04825515997175382</v>
+        <v>0.03713807121512071</v>
       </c>
       <c r="G104" t="n">
-        <v>0.05229232928394636</v>
+        <v>0.04029354723122356</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1104</v>
+        <v>642</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3219963734363844</v>
+        <v>0.2496938000549995</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0008961601597559246</v>
+        <v>0.001075880386391427</v>
       </c>
       <c r="D105" t="n">
-        <v>-10.21164115245803</v>
+        <v>-7.891239497641135</v>
       </c>
       <c r="E105" t="n">
-        <v>1.791221668316997e-24</v>
+        <v>2.999033306761968e-15</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.01090772169440639</v>
+        <v>-0.01059872260133804</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.00739481023870754</v>
+        <v>-0.006381336998320828</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1241</v>
+        <v>645</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2863882917164403</v>
+        <v>0.3321749656721249</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0008485750174556363</v>
+        <v>0.000814970711602458</v>
       </c>
       <c r="D106" t="n">
-        <v>-52.74648294585353</v>
+        <v>90.78993240359387</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.04642253750106037</v>
+        <v>0.07239381803482342</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.04309615787194179</v>
+        <v>0.07558845359976848</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1295</v>
+        <v>699</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3682951287186575</v>
+        <v>0.2994935817856994</v>
       </c>
       <c r="C107" t="n">
-        <v>0.001052463856662903</v>
+        <v>0.001195628504596761</v>
       </c>
       <c r="D107" t="n">
-        <v>35.29573873776669</v>
+        <v>34.5506583123849</v>
       </c>
       <c r="E107" t="n">
-        <v>8.844628011292907e-272</v>
+        <v>3.215420615203431e-261</v>
       </c>
       <c r="F107" t="n">
-        <v>0.03508468151371173</v>
+        <v>0.03896635646348207</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03921029711772057</v>
+        <v>0.04365314739825876</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1355</v>
+        <v>703</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3442381099308853</v>
+        <v>0.3688062693598549</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0008980207137720439</v>
+        <v>0.0008141740481899656</v>
       </c>
       <c r="D108" t="n">
-        <v>14.57702514784849</v>
+        <v>135.8707511630427</v>
       </c>
       <c r="E108" t="n">
-        <v>4.241044004480894e-48</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01133036815197809</v>
+        <v>0.109026683158587</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01485057290390978</v>
+        <v>0.1122181958514649</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1356</v>
+        <v>708</v>
       </c>
       <c r="B109" t="n">
-        <v>0.304296153578589</v>
+        <v>0.3286047471132868</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0009971170302000719</v>
+        <v>0.0008094595240575153</v>
       </c>
       <c r="D109" t="n">
-        <v>-26.92912166886235</v>
+        <v>86.99745344333508</v>
       </c>
       <c r="E109" t="n">
-        <v>2.393679366418809e-159</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.02880581496961161</v>
+        <v>0.06883440123578202</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.02489715667909325</v>
+        <v>0.07200743328113368</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1357</v>
+        <v>709</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3009384133354782</v>
+        <v>0.3522130481147156</v>
       </c>
       <c r="C110" t="n">
-        <v>0.001030076159492431</v>
+        <v>0.0008080845782866198</v>
       </c>
       <c r="D110" t="n">
-        <v>-29.32717720828408</v>
+        <v>116.3606147010708</v>
       </c>
       <c r="E110" t="n">
-        <v>1.588495884834262e-188</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.03222815443731444</v>
+        <v>0.09244539708906072</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.02819029769761204</v>
+        <v>0.09561303943071256</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1374</v>
+        <v>710</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2996756663381397</v>
+        <v>0.3611062343213605</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0008832078946765215</v>
+        <v>0.0008117684100453556</v>
       </c>
       <c r="D111" t="n">
-        <v>-35.63370895402656</v>
+        <v>126.787890724623</v>
       </c>
       <c r="E111" t="n">
-        <v>6.027738597866767e-277</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.0332030426159285</v>
+        <v>0.1013313630976149</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.02974090351367491</v>
+        <v>0.1045134458354481</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1378</v>
+        <v>727</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3555771493495192</v>
+        <v>0.3204551508971307</v>
       </c>
       <c r="C112" t="n">
-        <v>0.000938463249439357</v>
+        <v>0.001047189090474312</v>
       </c>
       <c r="D112" t="n">
-        <v>26.03139756529848</v>
+        <v>59.46521178338161</v>
       </c>
       <c r="E112" t="n">
-        <v>4.67674016850434e-149</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.02259014102138154</v>
+        <v>0.0602188623072671</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02626887887177401</v>
+        <v>0.06432377977733637</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1379</v>
+        <v>728</v>
       </c>
       <c r="B113" t="n">
-        <v>0.2770775477967349</v>
+        <v>0.3531723123853435</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0009032205574813551</v>
+        <v>0.0008153092244565526</v>
       </c>
       <c r="D113" t="n">
-        <v>-59.86366359616729</v>
+        <v>116.5060809827455</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.05584038557032512</v>
+        <v>0.09339050127315417</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.05229979764208791</v>
+        <v>0.09658646378787485</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1381</v>
+        <v>733</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3388978877020534</v>
+        <v>0.3580596262782237</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0008231432753908016</v>
+        <v>0.00102762402210972</v>
       </c>
       <c r="D114" t="n">
-        <v>9.415430497725275</v>
+        <v>97.19099035690984</v>
       </c>
       <c r="E114" t="n">
-        <v>4.774600147676488e-21</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.006136904182927832</v>
+        <v>0.09786168462668454</v>
       </c>
       <c r="G114" t="n">
-        <v>0.009363592415296225</v>
+        <v>0.1018899082201049</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1382</v>
+        <v>861</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3149425047277178</v>
+        <v>0.3067932188201275</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0008696919763277269</v>
+        <v>0.0008437669800608545</v>
       </c>
       <c r="D115" t="n">
-        <v>-18.63318866485317</v>
+        <v>57.6099682898147</v>
       </c>
       <c r="E115" t="n">
-        <v>2.113139738493655e-77</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.01790971330065761</v>
+        <v>0.04695563137336708</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.01450055604978949</v>
+        <v>0.05026314655723</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1384</v>
+        <v>862</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3667501693327</v>
+        <v>0.3431214888480235</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0008619632195779204</v>
+        <v>0.0009651419310071152</v>
       </c>
       <c r="D116" t="n">
-        <v>41.30400128579984</v>
+        <v>88.00535575587622</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.03391309951071886</v>
+        <v>0.08304601019274101</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03729196034879834</v>
+        <v>0.08682930779364804</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1552</v>
+        <v>863</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3012210432590541</v>
+        <v>0.3191965415703779</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0009441216090792164</v>
+        <v>0.0009385100555354735</v>
       </c>
       <c r="D117" t="n">
-        <v>-31.69781928100776</v>
+        <v>65.01018434026021</v>
       </c>
       <c r="E117" t="n">
-        <v>8.832805325838178e-220</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.03177705533915572</v>
+        <v>0.05917326058019658</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.0280761369486188</v>
+        <v>0.06285216285090138</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1570</v>
+        <v>864</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3217536714571199</v>
+        <v>0.3373340591268739</v>
       </c>
       <c r="C118" t="n">
-        <v>0.001499183478120565</v>
+        <v>0.000821631979165571</v>
       </c>
       <c r="D118" t="n">
-        <v>-6.266056211877537</v>
+        <v>96.3329462327257</v>
       </c>
       <c r="E118" t="n">
-        <v>3.713014460665524e-10</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.0123323371408539</v>
+        <v>0.07753985560795498</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.006455598750789173</v>
+        <v>0.08076060293613493</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1571</v>
+        <v>874</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3510430531581603</v>
+        <v>0.3369422286537772</v>
       </c>
       <c r="C119" t="n">
-        <v>0.000939604322972267</v>
+        <v>0.0008695047393651501</v>
       </c>
       <c r="D119" t="n">
-        <v>21.1742467215172</v>
+        <v>90.57845832611787</v>
       </c>
       <c r="E119" t="n">
-        <v>2.304040115280652e-99</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.01805380834905334</v>
+        <v>0.07705419598238174</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0217370191613845</v>
+        <v>0.0804626016155147</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1573</v>
+        <v>876</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3736257241343444</v>
+        <v>0.3615983126155695</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0008401697317381846</v>
+        <v>0.0008703393813369771</v>
       </c>
       <c r="D120" t="n">
-        <v>50.55893247132608</v>
+        <v>118.8208703159907</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.04083136910628622</v>
+        <v>0.1017086440713205</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04412480035651982</v>
+        <v>0.1051203214501606</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1048</v>
+        <v>887</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3311476394029414</v>
-      </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
+        <v>0.3190393861545039</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.0008553909984859398</v>
+      </c>
+      <c r="D121" t="n">
+        <v>71.14355471052491</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.05917901598553051</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.06253209661381946</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>864</v>
+        <v>889</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3231865640570487</v>
+        <v>0.3566794233812171</v>
       </c>
       <c r="C122" t="n">
-        <v>0.001005772028022369</v>
+        <v>0.0008100969996215888</v>
       </c>
       <c r="D122" t="n">
-        <v>16.00997805612912</v>
+        <v>121.5849380659319</v>
       </c>
       <c r="E122" t="n">
-        <v>1.216424717069069e-57</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.01413109510921324</v>
+        <v>0.09690782807101506</v>
       </c>
       <c r="G122" t="n">
-        <v>0.018073681087</v>
+        <v>0.1000833589817612</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3268435950859612</v>
+        <v>0.3327432828734999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.00108557730010607</v>
+        <v>0.0008095840065984553</v>
       </c>
       <c r="D123" t="n">
-        <v>18.20176151904478</v>
+        <v>92.09600536939907</v>
       </c>
       <c r="E123" t="n">
-        <v>6.014711541524618e-74</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01763170940654831</v>
+        <v>0.07297269301400482</v>
       </c>
       <c r="G123" t="n">
-        <v>0.02188712884749007</v>
+        <v>0.07614621302333709</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>876</v>
+        <v>897</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3484863519396315</v>
+        <v>0.3005641350881303</v>
       </c>
       <c r="C124" t="n">
-        <v>0.001054437568449747</v>
+        <v>0.001055982348141263</v>
       </c>
       <c r="D124" t="n">
-        <v>39.26470112551061</v>
+        <v>40.13353566742765</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.03933549950928482</v>
+        <v>0.04031061198095549</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04346885245209413</v>
+        <v>0.04444999848564728</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3191123501087741</v>
+        <v>0.3423459452250536</v>
       </c>
       <c r="C125" t="n">
-        <v>0.001131779686470292</v>
+        <v>0.001085994882983651</v>
       </c>
       <c r="D125" t="n">
-        <v>10.62766392931525</v>
+        <v>77.49770895696908</v>
       </c>
       <c r="E125" t="n">
-        <v>2.264781281781846e-26</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.009809908679377716</v>
+        <v>0.08203359846333717</v>
       </c>
       <c r="G125" t="n">
-        <v>0.01424643962028636</v>
+        <v>0.08629063227711216</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>889</v>
+        <v>983</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3530852836953915</v>
+        <v>0.3568553855523914</v>
       </c>
       <c r="C126" t="n">
-        <v>0.001038343576571584</v>
+        <v>0.0008380983483828213</v>
       </c>
       <c r="D126" t="n">
-        <v>44.30239544442173</v>
+        <v>117.7326693077932</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.04396597516611665</v>
+        <v>0.09702890845113502</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04803624030678234</v>
+        <v>0.1003142029439898</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>892</v>
+        <v>988</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3276162343430652</v>
+        <v>0.387246329958249</v>
       </c>
       <c r="C127" t="n">
-        <v>0.001026182576016163</v>
+        <v>0.0008984213569708845</v>
       </c>
       <c r="D127" t="n">
-        <v>20.0081923665402</v>
+        <v>143.6547552014646</v>
       </c>
       <c r="E127" t="n">
-        <v>6.122289105408011e-89</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.01852076113080539</v>
+        <v>0.12730162159673</v>
       </c>
       <c r="G127" t="n">
-        <v>0.02254335563744089</v>
+        <v>0.1308233786101102</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>897</v>
+        <v>990</v>
       </c>
       <c r="B128" t="n">
-        <v>0.2900319687425563</v>
+        <v>0.3488456597816087</v>
       </c>
       <c r="C128" t="n">
-        <v>0.001259508733679838</v>
+        <v>0.0008064173549258045</v>
       </c>
       <c r="D128" t="n">
-        <v>-13.5387764772105</v>
+        <v>112.4254449299658</v>
       </c>
       <c r="E128" t="n">
-        <v>9.773088445419655e-42</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.01952081905582524</v>
+        <v>0.0890812764629814</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.01458359537694633</v>
+        <v>0.09224238339057807</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>898</v>
+        <v>991</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3216498320147164</v>
+        <v>0.392485440049082</v>
       </c>
       <c r="C129" t="n">
-        <v>0.001283891740580867</v>
+        <v>0.0008454724977106484</v>
       </c>
       <c r="D129" t="n">
-        <v>11.34492542898085</v>
+        <v>158.847993941745</v>
       </c>
       <c r="E129" t="n">
-        <v>8.084521084039586e-30</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.01204925401218035</v>
+        <v>0.1326445098396535</v>
       </c>
       <c r="G129" t="n">
-        <v>0.01708205809936838</v>
+        <v>0.1359587105488526</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>983</v>
+        <v>994</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3567575246587236</v>
+        <v>0.3321115354536453</v>
       </c>
       <c r="C130" t="n">
-        <v>0.001109824424275265</v>
+        <v>0.0008139526467414658</v>
       </c>
       <c r="D130" t="n">
-        <v>44.75784422587306</v>
+        <v>90.82556079247919</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.04749811510258333</v>
+        <v>0.07233238319247576</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05184858229697981</v>
+        <v>0.07552302800515692</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3799763349027555</v>
+        <v>0.330585335623797</v>
       </c>
       <c r="C131" t="n">
-        <v>0.001143148155566727</v>
+        <v>0.0008230191636139972</v>
       </c>
       <c r="D131" t="n">
-        <v>63.76440235577024</v>
+        <v>87.97061960385287</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.07065161150209734</v>
+        <v>0.07078841326559285</v>
       </c>
       <c r="G131" t="n">
-        <v>0.07513270638552946</v>
+        <v>0.07401459827234333</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>990</v>
+        <v>1001</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3375847859900833</v>
+        <v>0.3532418249730115</v>
       </c>
       <c r="C132" t="n">
-        <v>0.001001363289148324</v>
+        <v>0.0008129259894162671</v>
       </c>
       <c r="D132" t="n">
-        <v>30.45908549042428</v>
+        <v>116.9331481042208</v>
       </c>
       <c r="E132" t="n">
-        <v>3.846042485646869e-203</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.02853795808195678</v>
+        <v>0.09346468492894219</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0324632619803257</v>
+        <v>0.09665130530742297</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>991</v>
+        <v>1008</v>
       </c>
       <c r="B133" t="n">
-        <v>0.37842290664248</v>
+        <v>0.2981193754697271</v>
       </c>
       <c r="C133" t="n">
-        <v>0.001029809653261188</v>
+        <v>0.0008065693787982219</v>
       </c>
       <c r="D133" t="n">
-        <v>69.27370554123605</v>
+        <v>49.5128462159097</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.06932032443161602</v>
+        <v>0.03835469418893837</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0733571369354598</v>
+        <v>0.04151639704085799</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3303598836948681</v>
+        <v>0.3636525803609646</v>
       </c>
       <c r="C134" t="n">
-        <v>0.00104642874253744</v>
+        <v>0.0008250732969209496</v>
       </c>
       <c r="D134" t="n">
-        <v>22.24299351667827</v>
+        <v>127.829552719412</v>
       </c>
       <c r="E134" t="n">
-        <v>1.990988991310742e-109</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.02122472840257093</v>
+        <v>0.1038516319640181</v>
       </c>
       <c r="G134" t="n">
-        <v>0.02532668706928123</v>
+        <v>0.1070858690482532</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="B135" t="n">
-        <v>0.326959502349966</v>
+        <v>0.3171696131460834</v>
       </c>
       <c r="C135" t="n">
-        <v>0.001046213029762043</v>
+        <v>0.0008312922980840147</v>
       </c>
       <c r="D135" t="n">
-        <v>18.99739902450318</v>
+        <v>70.95673017446026</v>
       </c>
       <c r="E135" t="n">
-        <v>2.2324530095365e-80</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.01782476985037919</v>
+        <v>0.05735647569619845</v>
       </c>
       <c r="G135" t="n">
-        <v>0.02192588293166873</v>
+        <v>0.0606150908863104</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1001</v>
+        <v>1043</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3506842595583248</v>
+        <v>0.332293908150848</v>
       </c>
       <c r="C136" t="n">
-        <v>0.001038786097521071</v>
+        <v>0.0008514377518724071</v>
       </c>
       <c r="D136" t="n">
-        <v>41.97214778232859</v>
+        <v>87.04109975514086</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.04156408369687042</v>
+        <v>0.07244128622487818</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04563608350189514</v>
+        <v>0.07577887036715995</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1008</v>
+        <v>1048</v>
       </c>
       <c r="B137" t="n">
-        <v>0.2932904674694342</v>
+        <v>0.3384068628346791</v>
       </c>
       <c r="C137" t="n">
-        <v>0.001050695076451245</v>
+        <v>0.0008315067538162689</v>
       </c>
       <c r="D137" t="n">
-        <v>-13.12817467090126</v>
+        <v>96.47911169892473</v>
       </c>
       <c r="E137" t="n">
-        <v>2.388137711779991e-39</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.01585304975170799</v>
+        <v>0.07859330505808816</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.0117343672273078</v>
+        <v>0.08185276090161207</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1010</v>
+        <v>1073</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3512082972316179</v>
+        <v>0.06485093311716572</v>
       </c>
       <c r="C138" t="n">
-        <v>0.001073142053839604</v>
+        <v>0.0008700756492206925</v>
       </c>
       <c r="D138" t="n">
-        <v>41.11675720358156</v>
+        <v>-222.2023991946301</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.04202078438530955</v>
+        <v>-0.1950382185201649</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04622745816004214</v>
+        <v>-0.1916275749551616</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1012</v>
+        <v>1081</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3156732472033378</v>
+        <v>0.3286274101187121</v>
       </c>
       <c r="C139" t="n">
-        <v>0.00108809748050425</v>
+        <v>0.0008997045350424515</v>
       </c>
       <c r="D139" t="n">
-        <v>7.893659711826009</v>
+        <v>78.29634899034868</v>
       </c>
       <c r="E139" t="n">
-        <v>2.954332344593236e-15</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.00645642202092496</v>
+        <v>0.06868018676723993</v>
       </c>
       <c r="G139" t="n">
-        <v>0.01072172046786661</v>
+        <v>0.07220697376052641</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1043</v>
+        <v>1091</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3309921994458925</v>
+        <v>0.3713163908711557</v>
       </c>
       <c r="C140" t="n">
-        <v>0.001324918560011044</v>
+        <v>0.0008670035931220814</v>
       </c>
       <c r="D140" t="n">
-        <v>18.04490042523911</v>
+        <v>130.4868421697495</v>
       </c>
       <c r="E140" t="n">
-        <v>1.034797290088174e-72</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.02131120970068916</v>
+        <v>0.1114332603702478</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0265048372732118</v>
+        <v>0.1148318616624057</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>863</v>
+        <v>1104</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3070841759589421</v>
-      </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+        <v>0.3288205155311267</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.0008499741964946685</v>
+      </c>
+      <c r="D141" t="n">
+        <v>83.10450595748263</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.06897076212913834</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.07230260922345703</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>26</v>
+        <v>1241</v>
       </c>
       <c r="B142" t="n">
-        <v>0.364598880982551</v>
+        <v>0.2937490232489369</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0006952947521150957</v>
+        <v>0.0008227295366375781</v>
       </c>
       <c r="D142" t="n">
-        <v>123.8576496204409</v>
+        <v>43.22829290833494</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.08475480881697492</v>
+        <v>0.03395266855078858</v>
       </c>
       <c r="G142" t="n">
-        <v>0.08748033876383074</v>
+        <v>0.03717771823742724</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>47</v>
+        <v>1295</v>
       </c>
       <c r="B143" t="n">
-        <v>0.381232736898471</v>
+        <v>0.3605381549199077</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0007026751702687773</v>
+        <v>0.000898232913552569</v>
       </c>
       <c r="D143" t="n">
-        <v>146.2289177900221</v>
+        <v>113.9507621250047</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1013741992485539</v>
+        <v>0.1005938159017513</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1041286601640917</v>
+        <v>0.1041148342284062</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>56</v>
+        <v>1355</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3412363548404392</v>
+        <v>0.3428674052279476</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0007258221644718147</v>
+        <v>0.000811757103907773</v>
       </c>
       <c r="D144" t="n">
-        <v>86.46063832172769</v>
+        <v>104.3213234173801</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.06133244950603434</v>
+        <v>0.08309255616388743</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06417764579054791</v>
+        <v>0.08627459458234972</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>641</v>
+        <v>1356</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3180894571517753</v>
+        <v>0.2970073063175991</v>
       </c>
       <c r="C145" t="n">
-        <v>0.00069148868372902</v>
+        <v>0.0008316763507120638</v>
       </c>
       <c r="D145" t="n">
-        <v>57.27953456306853</v>
+        <v>46.6809912648476</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.03825284481049281</v>
+        <v>0.03719341613625594</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04096345510876152</v>
+        <v>0.04045353678928442</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>642</v>
+        <v>1357</v>
       </c>
       <c r="B146" t="n">
-        <v>0.2675914886837639</v>
+        <v>0.30617293826923</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0009334318083208549</v>
+        <v>0.0009573825848575479</v>
       </c>
       <c r="D146" t="n">
-        <v>-11.6664317749937</v>
+        <v>50.12531998536562</v>
       </c>
       <c r="E146" t="n">
-        <v>1.959359766837746e-31</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.01271932774830524</v>
+        <v>0.04611266769616276</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.009060309268463256</v>
+        <v>0.04986554913263933</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>645</v>
+        <v>1374</v>
       </c>
       <c r="B147" t="n">
-        <v>0.3501279561963428</v>
+        <v>0.3039482845591259</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0007164691318895232</v>
+        <v>0.00083260161546859</v>
       </c>
       <c r="D147" t="n">
-        <v>99.99963126847221</v>
+        <v>54.96560882666631</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0702423826344124</v>
+        <v>0.04413258088703017</v>
       </c>
       <c r="G147" t="n">
-        <v>0.07305091537397701</v>
+        <v>0.04739632852156376</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>699</v>
+        <v>1378</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3203466275940695</v>
+        <v>0.3621167564410877</v>
       </c>
       <c r="C148" t="n">
-        <v>0.001024037312333794</v>
+        <v>0.0008678262876897948</v>
       </c>
       <c r="D148" t="n">
-        <v>40.88261228148975</v>
+        <v>119.7623626531691</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.03985822603440805</v>
+        <v>0.1022320134838744</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04387241476943463</v>
+        <v>0.1056338396886429</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>703</v>
+        <v>1379</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3870849654983738</v>
+        <v>0.2801330201993405</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0007138515490538604</v>
+        <v>0.0008147781683535448</v>
       </c>
       <c r="D149" t="n">
-        <v>152.1375956249854</v>
+        <v>26.93885427596216</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1.050206343619308e-159</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1072045223508361</v>
+        <v>0.02035224994094475</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1100027942616151</v>
+        <v>0.02354613074807827</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>708</v>
+        <v>1381</v>
       </c>
       <c r="B150" t="n">
-        <v>0.3495191376649763</v>
+        <v>0.3446060159068018</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0007063497063349187</v>
+        <v>0.0008134134969135248</v>
       </c>
       <c r="D150" t="n">
-        <v>100.5703404924264</v>
+        <v>106.2463143037329</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.06965339799170257</v>
+        <v>0.08482792036288027</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07242226295395381</v>
+        <v>0.08801645174106539</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>709</v>
+        <v>1382</v>
       </c>
       <c r="B151" t="n">
-        <v>0.3714779159979541</v>
+        <v>0.3202251913679213</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0007009045784755091</v>
+        <v>0.0008421138156119808</v>
       </c>
       <c r="D151" t="n">
-        <v>132.6808408186985</v>
+        <v>73.67336856717598</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.09162284867550718</v>
+        <v>0.06039084407314909</v>
       </c>
       <c r="G151" t="n">
-        <v>0.09437036893610473</v>
+        <v>0.06369187895303557</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>710</v>
+        <v>1384</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3805719194745673</v>
+        <v>0.3702954010163964</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0007277193451255621</v>
+        <v>0.0008236217795874124</v>
       </c>
       <c r="D152" t="n">
-        <v>140.2884408202783</v>
+        <v>136.1202118983897</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1006642957008453</v>
+        <v>0.1104972975492312</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1035169288639929</v>
+        <v>0.1137258447739035</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>727</v>
+        <v>1552</v>
       </c>
       <c r="B153" t="n">
-        <v>0.3428937900957663</v>
+        <v>0.3036343692175479</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0009318911782304092</v>
+        <v>0.0008315840012329059</v>
       </c>
       <c r="D153" t="n">
-        <v>69.12017669909979</v>
+        <v>54.65537972752483</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.06258599327044365</v>
+        <v>0.04382066003837223</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0662389725367927</v>
+        <v>0.04708041868706567</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>728</v>
+        <v>1570</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3748337521323341</v>
+        <v>0.3172592277097804</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0007409434217603407</v>
+        <v>0.001050888160143023</v>
       </c>
       <c r="D154" t="n">
-        <v>130.0402191455737</v>
+        <v>56.21473349448664</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.09490020941072856</v>
+        <v>0.05701568905598651</v>
       </c>
       <c r="G154" t="n">
-        <v>0.09780468046964337</v>
+        <v>0.06113510665391638</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>733</v>
+        <v>1571</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3793206389218249</v>
+        <v>0.346866156887929</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0009004206865015212</v>
+        <v>0.0008229964615849414</v>
       </c>
       <c r="D155" t="n">
-        <v>111.9913538653539</v>
+        <v>107.7554171524797</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.09907452368361937</v>
+        <v>0.08706927902501059</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1026041397757341</v>
+        <v>0.09029537504118952</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>861</v>
+        <v>1573</v>
       </c>
       <c r="B156" t="n">
-        <v>0.3272344601228574</v>
+        <v>0.3797104748390827</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0007364459226962842</v>
+        <v>0.0008208982737845866</v>
       </c>
       <c r="D156" t="n">
-        <v>66.20058775288432</v>
+        <v>148.0410531550756</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.04730973241700431</v>
+        <v>0.1199177093603724</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05019657344441414</v>
+        <v>0.1231355806081351</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>862</v>
+        <v>1606</v>
       </c>
       <c r="B157" t="n">
-        <v>0.3625122711533485</v>
+        <v>0.3414265195617035</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0009541862228229423</v>
+        <v>0.00125663153003805</v>
       </c>
       <c r="D157" t="n">
-        <v>88.06558085967363</v>
+        <v>66.24271929923164</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.08216077644916327</v>
+        <v>0.08077973016689469</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0859011514732375</v>
+        <v>0.08570564924685439</v>
       </c>
     </row>
     <row r="158">
@@ -3993,59 +4053,13 @@
         <v>997</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3103469575591889</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.0008422083278529019</v>
-      </c>
-      <c r="D158" t="n">
-        <v>37.83582910926327</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.03021493747723998</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.03351636325684156</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>4143</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.2900469584738593</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.0008447675806309671</v>
-      </c>
-      <c r="D159" t="n">
-        <v>13.69092700393712</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1.228975923333134e-42</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0.009909922303361594</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.01322138026006068</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>7</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.2784813071921481</v>
-      </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
+        <v>0.258183829854829</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hourly datasets/PlantID_year-5final.xlsx
+++ b/hourly datasets/PlantID_year-5final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,21 @@
           <t>Coef.</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>intercept</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>8226</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3552943150520866</v>
+        <v>0.3552923712726608</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1551712454460489</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +466,10 @@
         <v>8102</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3474080005414519</v>
+        <v>0.3474114337440978</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1394513239211282</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +477,10 @@
         <v>8066</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278227955265048</v>
+        <v>0.2782277944379779</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2603651123082333</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +488,10 @@
         <v>8006</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4055994437429484</v>
+        <v>0.4055961751619946</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2698803352849158</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +499,10 @@
         <v>8002</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2785136491076176</v>
+        <v>0.2785043514278274</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1302831355515159</v>
       </c>
     </row>
     <row r="7">
@@ -492,6 +512,9 @@
       <c r="B7" t="n">
         <v>0.3090181855324101</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.1714851378538474</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -500,13 +523,19 @@
       <c r="B8" t="n">
         <v>0.3401975482949796</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.335890379181976</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6257</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3287953122812957</v>
+        <v>0.3343225803395934</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3432294565610152</v>
       </c>
     </row>
     <row r="10">
@@ -516,13 +545,19 @@
       <c r="B10" t="n">
         <v>0.3658709279740636</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.2412445521540299</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6155</v>
       </c>
       <c r="B11" t="n">
-        <v>0.315511113369502</v>
+        <v>0.3155112536720381</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2448229558085094</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +565,10 @@
         <v>6124</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3880474187128584</v>
+        <v>0.3879401210410856</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3552805623932609</v>
       </c>
     </row>
     <row r="13">
@@ -540,13 +578,19 @@
       <c r="B13" t="n">
         <v>0.4104060715221152</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.4059912716054223</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>6101</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2838521998009068</v>
+        <v>0.2838538938680598</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0667309816958766</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +598,10 @@
         <v>6094</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4125700882181986</v>
+        <v>0.4125691066352672</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4038165477166723</v>
       </c>
     </row>
     <row r="16">
@@ -564,13 +611,19 @@
       <c r="B16" t="n">
         <v>0.3474616674149523</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.3248053007491101</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>6073</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3245522982980791</v>
+        <v>0.3244554527198928</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2542256669473548</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +631,10 @@
         <v>6065</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3116993712374381</v>
+        <v>0.3116993936044473</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3029886701291787</v>
       </c>
     </row>
     <row r="19">
@@ -588,13 +644,19 @@
       <c r="B19" t="n">
         <v>0.4055368704473684</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.08907431371578098</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>6052</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3793336704087398</v>
+        <v>0.3793361856980768</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2968168894270694</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +664,10 @@
         <v>6041</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3520486273581772</v>
+        <v>0.4201693435208001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2518873463203275</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +675,10 @@
         <v>6025</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4245155903923691</v>
+        <v>0.424500240611838</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2359966964532038</v>
       </c>
     </row>
     <row r="23">
@@ -620,13 +688,19 @@
       <c r="B23" t="n">
         <v>0.3426884131466626</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.3439988212068588</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>6017</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1922298773650682</v>
+        <v>0.239726672398591</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05850200691513129</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +708,10 @@
         <v>6004</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3279985693498472</v>
+        <v>0.3279986293495945</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2087637470975833</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +719,10 @@
         <v>4271</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3125574963686906</v>
+        <v>0.3125579423528549</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1582578159593929</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +730,10 @@
         <v>4140</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3876557271829771</v>
+        <v>0.3876658048544019</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2653533481805699</v>
       </c>
     </row>
     <row r="28">
@@ -660,6 +743,9 @@
       <c r="B28" t="n">
         <v>0.3189621403650598</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.2966724787837601</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -668,13 +754,19 @@
       <c r="B29" t="n">
         <v>0.3149123188432593</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.2552556915990486</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>4057</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2938456031651329</v>
+        <v>0.3272916066229293</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2430876902308514</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +774,10 @@
         <v>4054</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3634611870461887</v>
+        <v>0.3634608149789025</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2427693364641491</v>
       </c>
     </row>
     <row r="32">
@@ -690,95 +785,131 @@
         <v>4050</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3410327559284186</v>
+        <v>0.3410360637700542</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2388637394723109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3837145768750915</v>
+        <v>0.7824186798939284</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.7477084052281951</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2912525000863884</v>
+        <v>0.3837145768750915</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3681930664959028</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3954</v>
+        <v>4040</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3635269092423447</v>
+        <v>0.2913092643546397</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2292177869753731</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3948</v>
+        <v>3954</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3775941450686754</v>
+        <v>0.3635269092423447</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.2865477947335922</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3940836482872148</v>
+        <v>0.3775941450686754</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.2869028321792945</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3366368953815079</v>
+        <v>0.3940836482872148</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3939717587621016</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2849296023238574</v>
+        <v>0.3366353580817228</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1801983232476043</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3405143372823186</v>
+        <v>0.2849652984772375</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1400923994477108</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3582634151879388</v>
+        <v>0.3405143372823186</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3091382114898137</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3018969266730783</v>
+        <v>0.3582672731998908</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.2424091346783407</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3648</v>
+        <v>3942</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3364034361044598</v>
+        <v>0.3018999497704454</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.2108279717515211</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +917,10 @@
         <v>3406</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6081007171516848</v>
+        <v>0.6081653225996022</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3188676570365236</v>
       </c>
     </row>
     <row r="45">
@@ -796,13 +930,19 @@
       <c r="B45" t="n">
         <v>0.3797161927839146</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.3625697567401865</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>3399</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3351008806057211</v>
+        <v>0.3350997414693782</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1430390550709021</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +950,10 @@
         <v>3393</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3994874348064883</v>
+        <v>0.3994901933580033</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.3644340262140048</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +961,10 @@
         <v>3181</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3217919508582702</v>
+        <v>0.3217889857220987</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.2284647458705261</v>
       </c>
     </row>
     <row r="49">
@@ -828,845 +974,1141 @@
       <c r="B49" t="n">
         <v>0.3569838548117843</v>
       </c>
+      <c r="C49" t="n">
+        <v>0.3620352602138258</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>3178</v>
       </c>
       <c r="B50" t="n">
-        <v>0.327566406591314</v>
+        <v>0.3275663572897488</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1898383704322337</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3148</v>
+        <v>3140</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2965877398112642</v>
+        <v>0.337666493389861</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.3027113429131532</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3140</v>
+        <v>3131</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3376650447396093</v>
+        <v>0.351105392634392</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.3591634049800527</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3131</v>
+        <v>3118</v>
       </c>
       <c r="B53" t="n">
-        <v>0.351105392634392</v>
+        <v>0.3473234575840232</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.3052546328180005</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3118</v>
+        <v>3113</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3473228064662911</v>
+        <v>0.3529096989096496</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1632352768952993</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3113</v>
+        <v>2878</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3528969941272563</v>
+        <v>0.369479057198514</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.3708281215482347</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3694791177492832</v>
+        <v>0.3776694247978779</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.3603154521916198</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3776694247978779</v>
+        <v>0.3625406720542218</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.3260106814848599</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2872</v>
+        <v>2866</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3625376727394072</v>
+        <v>0.3526714357011489</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.2595376673622529</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2866</v>
+        <v>2861</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3381954202449502</v>
+        <v>0.3477934470921597</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.2133136767445464</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2861</v>
+        <v>2857</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3477931767215621</v>
+        <v>0.281129569897734</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.2186496650980376</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2857</v>
+        <v>2850</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2823771565575275</v>
+        <v>0.3433329220854273</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.343753979504991</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2850</v>
+        <v>2843</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3433329220854273</v>
+        <v>0.3252442778848884</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.2083697635410966</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3216269550822646</v>
+        <v>0.3794182838440334</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.3575590356340594</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3794182838440334</v>
+        <v>0.3884417201040438</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.3110347034902847</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3884417201040438</v>
+        <v>0.3369433616750324</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.1515793600707123</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3369433616750324</v>
+        <v>0.4299181261618698</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.3541535004374682</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3894207725077461</v>
+        <v>0.3510102084867193</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.2863593208864377</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3509914690879339</v>
+        <v>0.3535494087983278</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.3324147205739544</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343663050212771</v>
+        <v>0.3588371502263346</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.2864663327899014</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2828</v>
+        <v>2594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3588318135963851</v>
+        <v>0.9232630873494789</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.2556332247648307</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2594</v>
+        <v>2554</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3737235015129902</v>
+        <v>0.3821884800577424</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.1867713941993695</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2554</v>
+        <v>2549</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3821925239630565</v>
+        <v>0.2949961061059678</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.2781918649299595</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2549</v>
+        <v>2527</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2949964086566236</v>
+        <v>0.4098863214406124</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1227435804219945</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2535</v>
+        <v>2517</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3646772810784366</v>
+        <v>0.3663004271672184</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.2933406696082255</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2527</v>
+        <v>2516</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3590489661871542</v>
+        <v>0.3456634065261896</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.3012155931624207</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2517</v>
+        <v>2378</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3663008030739526</v>
+        <v>0.3453780315850363</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.3038938519228676</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2516</v>
+        <v>2364</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3456634065261896</v>
+        <v>0.3525431216392524</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.2894672639014496</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2378</v>
+        <v>2168</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3372272575028425</v>
+        <v>0.328708041209899</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.3300134796977693</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2364</v>
+        <v>2167</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3525431216392524</v>
+        <v>0.347242256606984</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.3366660226245398</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2168</v>
+        <v>2161</v>
       </c>
       <c r="B80" t="n">
-        <v>0.328708041209899</v>
+        <v>0.3073561893190898</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.306355634535508</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2167</v>
+        <v>2107</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3472453094997447</v>
+        <v>0.3564376917044341</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.2014334174200204</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2161</v>
+        <v>2104</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3073561893190898</v>
+        <v>0.3895049259438744</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.2553359531861112</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3564000708351512</v>
+        <v>0.3289174670030052</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.3240016156437775</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2104</v>
+        <v>2094</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3894876992988286</v>
+        <v>0.3307078980575056</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.2470961413476412</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2103</v>
+        <v>2080</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3289174670030052</v>
+        <v>0.2898452909214255</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.2693312333619846</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2094</v>
+        <v>2079</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3307058014842032</v>
+        <v>0.3372433879823832</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.3402666492379657</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="B87" t="n">
-        <v>0.289863292395069</v>
+        <v>0.3958070843343512</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.1957216615609177</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2079</v>
+        <v>2049</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3372241662963739</v>
+        <v>0.3664351696017946</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.3039698100824458</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2076</v>
+        <v>1912</v>
       </c>
       <c r="B89" t="n">
-        <v>0.395873024658783</v>
+        <v>0.3021888497082498</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1909667217377758</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2049</v>
+        <v>1723</v>
       </c>
       <c r="B90" t="n">
-        <v>0.366428156792645</v>
+        <v>0.3464204050467496</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.3432451065086399</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1912</v>
+        <v>1720</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3021888497082498</v>
+        <v>0.3565804617434754</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.3402237162917815</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3464204050467496</v>
+        <v>0.3651656580694664</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.3225632265749276</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1720</v>
+        <v>1702</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3565782881964168</v>
+        <v>0.3764542830846391</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.3598111216254937</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1710</v>
+        <v>1626</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3651651094865892</v>
+        <v>0.357139320137509</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.2637338918139669</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1702</v>
+        <v>1619</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3676800793748453</v>
+        <v>0.4098737004753095</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.376655891223158</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1626</v>
+        <v>1606</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3571162562874058</v>
+        <v>0.4054309772442743</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.272981955302236</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1619</v>
+        <v>1573</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4098737004753095</v>
+        <v>0.4240297565285431</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.1256978206501678</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1606</v>
+        <v>1571</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4054303610032605</v>
+        <v>0.3515771891659047</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.3045382009714929</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4240302453296833</v>
+        <v>0.3216390089905403</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.2214471639605749</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1571</v>
+        <v>1552</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3515833649821463</v>
+        <v>0.3012247405795566</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.1578897158661545</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1570</v>
+        <v>1384</v>
       </c>
       <c r="B101" t="n">
-        <v>0.321598852006574</v>
+        <v>0.3669224493412275</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.2259765394290166</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1552</v>
+        <v>1382</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3012302523736404</v>
+        <v>0.363290841620831</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.04630106772167087</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3669228751685295</v>
+        <v>0.3668600877894126</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.3329853481097314</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3632816532507223</v>
+        <v>0.2793138114026114</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.2146571483550322</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3668600877894126</v>
+        <v>0.4844666851906509</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.207604035415975</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2585537627815026</v>
+        <v>0.4411933389263253</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.1379510280831988</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1378</v>
+        <v>1357</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3643022251026977</v>
+        <v>0.2935729852909476</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.1618852517136486</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1374</v>
+        <v>1356</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4411999959877315</v>
+        <v>0.3629680822156559</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.2268736178190179</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B109" t="n">
-        <v>0.293558594549177</v>
+        <v>0.3309346177964644</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.2974624905930475</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1356</v>
+        <v>1295</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3022896200360595</v>
+        <v>0.3681437367799818</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.2434563623102982</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1355</v>
+        <v>1241</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3192332231418839</v>
+        <v>0.3080239398204193</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.1473971913155392</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1295</v>
+        <v>1104</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3157714205566603</v>
+        <v>0.3460869864855552</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.1587823670799392</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1241</v>
+        <v>1081</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3080270096754137</v>
+        <v>0.4210469883460745</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.2348647688883451</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1104</v>
+        <v>1073</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3460640239206587</v>
+        <v>0.4177560581234087</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.1129073877607587</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1091</v>
+        <v>1048</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3193132990322494</v>
+        <v>0.3589499003075336</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1559943768226723</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1081</v>
+        <v>1043</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3228946318383747</v>
+        <v>0.3650582382097938</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.4958270306222222</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1048</v>
+        <v>1012</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3589504787074601</v>
+        <v>0.3516568004615716</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.3261285510119878</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1043</v>
+        <v>1010</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3650417769763773</v>
+        <v>0.347803719174677</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.3581886427798633</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3516647768077579</v>
+        <v>0.3750803463378901</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.2596657065481903</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3477991313900971</v>
+        <v>0.3540452759583777</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.3251226295816934</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3750807898975695</v>
+        <v>0.358086273066074</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.2689572808377956</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3540416967738383</v>
+        <v>0.3302489814071</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.3195644891973971</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B123" t="n">
-        <v>0.358086273066074</v>
+        <v>0.3811352610768651</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.3519099099883118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3302489814071</v>
+        <v>0.3580232901520428</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.2681259085979236</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3811505940897512</v>
+        <v>0.3841926705887183</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.2603959862879861</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3504557586796571</v>
+        <v>0.3876880134291685</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.3540329521434992</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>988</v>
+        <v>898</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3841640621461964</v>
+        <v>0.5115107709985736</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.2967417310874794</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>983</v>
+        <v>897</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3876880134291685</v>
+        <v>0.3118600173462527</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.2070189662725886</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3286569272859958</v>
+        <v>0.3504047902460523</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.2064178789912281</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3118318889966903</v>
+        <v>0.3572117881186065</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.2563712130177653</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3504001635770365</v>
+        <v>0.3308272498810406</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.3193416329530831</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3572117881186065</v>
+        <v>0.4126113671719062</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.2086686432005373</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3308272498810406</v>
+        <v>0.3473510735948819</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.3094689044471209</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4126067997273819</v>
+        <v>0.323541307249837</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.2379894155895212</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="B135" t="n">
-        <v>0.332526863223937</v>
+        <v>0.3106702622882725</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.1920878776622009</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3235439494291968</v>
+        <v>0.4950783493118512</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.1991732923717136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B137" t="n">
-        <v>0.3106914032649918</v>
+        <v>0.3064547503279703</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.1749750542175869</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>862</v>
+        <v>733</v>
       </c>
       <c r="B138" t="n">
-        <v>0.4950547611410528</v>
+        <v>0.4002092710655875</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.3562491197859778</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>861</v>
+        <v>728</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3064391983443195</v>
+        <v>0.3375460938298391</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.294425477771501</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4001336242070967</v>
+        <v>0.505531634959922</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.193100805461479</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3375513569139843</v>
+        <v>0.379943953322869</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.08404288861300774</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3334082805858879</v>
+        <v>0.3645779121458736</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.3184158114393266</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3799320554617704</v>
+        <v>0.3339413851777939</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.2798314914285459</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3645779121458736</v>
+        <v>0.365094891301132</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.3611024877373562</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3339473677821478</v>
+        <v>0.3131411203079891</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.2577908174097741</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>703</v>
+        <v>645</v>
       </c>
       <c r="B146" t="n">
-        <v>0.365094891301132</v>
+        <v>0.3459289812680889</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.3089397303231735</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>699</v>
+        <v>642</v>
       </c>
       <c r="B147" t="n">
-        <v>0.3131411382985453</v>
+        <v>0.2564508522775998</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.1533984858791717</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3456101174754895</v>
+        <v>0.3085486849068858</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.2522717550407838</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>642</v>
+        <v>56</v>
       </c>
       <c r="B149" t="n">
-        <v>0.2565699582576574</v>
+        <v>0.3229707602317733</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.1207425987360456</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>641</v>
+        <v>47</v>
       </c>
       <c r="B150" t="n">
-        <v>0.3085486849068858</v>
+        <v>0.3594231411001607</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.366488365190525</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B151" t="n">
-        <v>0.3229707602317733</v>
+        <v>0.3457479358123071</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.3105899521638096</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3594231411001607</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>26</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.3457501046040119</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>7</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.3995977702182891</v>
+        <v>0.399642350832865</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.2255467831244189</v>
       </c>
     </row>
   </sheetData>
